--- a/data/MMWD_RainfallRecords2/0809Rain.xlsx
+++ b/data/MMWD_RainfallRecords2/0809Rain.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection lockWindows="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="CM" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,11 +44,10 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">e_morey:
 </t>
@@ -59,6 +58,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">No rainfall today.  Gauge error</t>
         </r>
@@ -68,11 +68,10 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">e_morey:
 </t>
@@ -83,6 +82,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">No rainfall today.  Gauge error</t>
         </r>
@@ -92,11 +92,10 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">e_morey:
 </t>
@@ -107,6 +106,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">No rainfall today.  Gauge error</t>
         </r>
@@ -116,11 +116,10 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">e_morey:
 </t>
@@ -131,6 +130,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">There was no rainfall on this day.  This number has beern inserted to adjust the rainfall data to the proper amount due to a rain gauge failure.</t>
         </r>
@@ -233,11 +233,12 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -259,17 +260,20 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -277,25 +281,21 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -726,7 +726,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -873,11 +873,11 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M32" activeCellId="0" sqref="M32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P13" activeCellId="0" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.64"/>
@@ -930,7 +930,7 @@
         <v>39873</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>112952</v>
+        <v>39904</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>39934</v>
@@ -2597,7 +2597,7 @@
       <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.64"/>
@@ -4285,7 +4285,7 @@
       <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -5999,11 +5999,11 @@
   </sheetPr>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q9" activeCellId="0" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.31"/>
@@ -6994,7 +6994,7 @@
       <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.09"/>
@@ -8682,9 +8682,9 @@
       <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.09"/>
   </cols>
@@ -10371,9 +10371,9 @@
       <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.65"/>
   </cols>
   <sheetData>
@@ -12059,10 +12059,10 @@
       <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13759,9 +13759,9 @@
       <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.31"/>
   </cols>
   <sheetData>
@@ -15555,7 +15555,7 @@
       <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.42"/>
@@ -17257,7 +17257,7 @@
       <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.65"/>
@@ -18945,10 +18945,10 @@
       <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
